--- a/crm接口文档/客户管理/查看客户详情.xlsx
+++ b/crm接口文档/客户管理/查看客户详情.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14685" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,10 +199,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -258,14 +258,74 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,16 +339,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,28 +363,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -332,33 +371,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,7 +387,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,20 +400,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -434,187 +434,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -681,30 +681,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -715,26 +691,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,6 +710,59 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -768,15 +777,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -785,10 +785,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,16 +797,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -815,115 +815,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1363,7 +1363,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:H18"/>
+      <selection activeCell="F15" sqref="F15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/crm接口文档/客户管理/查看客户详情.xlsx
+++ b/crm接口文档/客户管理/查看客户详情.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>URL</t>
   </si>
@@ -155,6 +155,9 @@
     <t>cusSource</t>
   </si>
   <si>
+    <t>Integer</t>
+  </si>
+  <si>
     <t>客户来源</t>
   </si>
   <si>
@@ -192,6 +195,12 @@
   </si>
   <si>
     <t>客户描述</t>
+  </si>
+  <si>
+    <t>cusSourceStr</t>
+  </si>
+  <si>
+    <t>客户来源-字符串（显示值）</t>
   </si>
 </sst>
 </file>
@@ -199,10 +208,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -257,8 +266,100 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,22 +374,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -302,104 +396,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -434,19 +443,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -458,163 +599,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -680,17 +689,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,27 +717,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -754,15 +752,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -777,6 +766,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -785,10 +794,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -797,133 +806,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1360,10 +1369,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:H15"/>
+      <selection activeCell="F22" sqref="F22:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1678,10 +1687,10 @@
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
       <c r="E15" s="19" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F15" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="25"/>
@@ -1695,7 +1704,7 @@
         <v>33</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
@@ -1703,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="25"/>
@@ -1717,7 +1726,7 @@
         <v>33</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
@@ -1725,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="F17" s="23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" s="24"/>
       <c r="H17" s="25"/>
@@ -1739,7 +1748,7 @@
         <v>33</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
@@ -1747,7 +1756,7 @@
         <v>27</v>
       </c>
       <c r="F18" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G18" s="24"/>
       <c r="H18" s="25"/>
@@ -1761,7 +1770,7 @@
         <v>33</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
@@ -1769,7 +1778,7 @@
         <v>27</v>
       </c>
       <c r="F19" s="23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G19" s="24"/>
       <c r="H19" s="25"/>
@@ -1783,7 +1792,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
@@ -1791,7 +1800,7 @@
         <v>27</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G20" s="24"/>
       <c r="H20" s="25"/>
@@ -1805,7 +1814,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
@@ -1813,7 +1822,7 @@
         <v>27</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G21" s="24"/>
       <c r="H21" s="25"/>
@@ -1822,8 +1831,30 @@
       </c>
       <c r="J21" s="19"/>
     </row>
+    <row r="22" ht="15" customHeight="1" spans="1:10">
+      <c r="A22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="42">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:E3"/>
@@ -1864,6 +1895,8 @@
     <mergeCell ref="F20:H20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="F21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="F22:H22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.21mhealth.com/" tooltip="https://www.21mhealth.com/"/>

--- a/crm接口文档/客户管理/查看客户详情.xlsx
+++ b/crm接口文档/客户管理/查看客户详情.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="9390"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>URL</t>
   </si>
@@ -161,6 +161,12 @@
     <t>客户来源</t>
   </si>
   <si>
+    <t>cusSourceStr</t>
+  </si>
+  <si>
+    <t>客户来源字符串（用于显示）</t>
+  </si>
+  <si>
     <t>cusMobile</t>
   </si>
   <si>
@@ -176,7 +182,13 @@
     <t>cusSex</t>
   </si>
   <si>
-    <t>客户性别 男 女</t>
+    <t>客户性别</t>
+  </si>
+  <si>
+    <t>cusSexStr</t>
+  </si>
+  <si>
+    <t>客户性别字符串（用于显示）</t>
   </si>
   <si>
     <t>cusTelephone</t>
@@ -195,12 +207,6 @@
   </si>
   <si>
     <t>客户描述</t>
-  </si>
-  <si>
-    <t>cusSourceStr</t>
-  </si>
-  <si>
-    <t>客户来源-字符串（显示值）</t>
   </si>
 </sst>
 </file>
@@ -208,10 +214,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -274,6 +280,80 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -282,65 +362,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -349,6 +370,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -357,6 +386,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -365,9 +401,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,35 +415,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -443,157 +449,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,12 +624,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,6 +728,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -733,6 +748,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,26 +792,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -794,10 +800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -806,133 +812,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1369,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:H22"/>
+      <selection activeCell="F23" sqref="F23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1775,7 +1781,7 @@
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="19" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="F19" s="23" t="s">
         <v>49</v>
@@ -1853,8 +1859,30 @@
       </c>
       <c r="J22" s="19"/>
     </row>
+    <row r="23" ht="15" customHeight="1" spans="1:10">
+      <c r="A23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="44">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:E3"/>
@@ -1897,6 +1925,8 @@
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="F23:H23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" display="https://www.21mhealth.com/" tooltip="https://www.21mhealth.com/"/>

--- a/crm接口文档/客户管理/查看客户详情.xlsx
+++ b/crm接口文档/客户管理/查看客户详情.xlsx
@@ -21,7 +21,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>/qiuxx/crm/10010/400</t>
+    <t>/crm/10010/400</t>
   </si>
   <si>
     <t>接口描述</t>
@@ -214,9 +214,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -272,6 +272,104 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -280,75 +378,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,59 +402,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -449,43 +449,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,139 +623,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,15 +695,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -724,41 +715,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -792,6 +748,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -800,10 +800,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -812,34 +812,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -848,97 +845,100 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1377,8 +1377,8 @@
   <sheetPr/>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:H23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
